--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/40_İstanbul_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/40_İstanbul_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D77200-AB09-4B7A-9FA9-5846606099A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{226BA6E4-C8BB-45CF-9119-0795E506BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{7CC46E58-96EB-4474-8FC3-0D43A72478A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="706" xr2:uid="{83FBD6E8-305C-428D-A7E8-38C516B03713}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{9590259D-ECDA-4F95-A186-A48984055ED9}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F6CCFCFA-EFDA-4047-A557-AC760D2EFB02}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D4E1592F-ED31-42E8-BDE7-2951E9976422}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6D404509-3EEB-47E6-B605-7C6BFAAB2935}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8D1C3F82-5795-4C0F-89C4-B369B02AFFFD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4DC41AA9-3012-43F4-B482-E5BD88A89D37}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{184DB509-3205-4E2F-B6D9-94D5BCA9310A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{359236AD-09DB-4B98-BD07-D66202631A01}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DE64DBD8-1153-41D7-8979-6F9C8104DC64}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3927BCB6-9A1F-44B7-8F3D-290BD445562E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1E67D583-1421-4951-A438-CD528CBC76A1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D0C47F48-0F14-44C5-8ACD-B22549B5D77A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{90074C91-C905-49DB-879C-315918CB77D0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DF7E9E75-621D-4D34-93AC-B2345EEBBB4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276FFF59-1D97-4AC7-A3C3-FDEEA368C22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15874676-9875-487B-9BF7-1C2EE9F576BE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2640,18 +2640,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0190B02-ED6F-4464-B96F-6BA30D1306E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{905F6605-118D-4ADB-A777-B6F6A56B6826}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79527B2D-5930-41B3-A6A1-2D9EF35A0C07}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8860159C-C7F6-45BC-896A-30919DD4A61B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1726B70-6BC9-4320-A529-06DEC4C45270}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B41DC7A9-25CF-4B8D-8C74-6BE86A9C26C1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60C4309E-9BAC-4CF3-B24E-76DFBADD2BB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E11B63D9-C4C1-447B-A28B-55D5DE7F35B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FFFD150-7918-42E4-BA09-96663C852F1A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71425DAD-D9D8-44FF-B34B-135D76FF54AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B26B7DD-ADBB-4C9B-B5FD-F0E622CB2C32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BFFF97F-67C6-459D-9ADE-842C3500DFC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DB66919-E09C-4341-A91B-C52A000FCE0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15018F4E-E0A8-4076-A0FF-4D9BD12CB5E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8545D0BB-9E6B-4A97-8884-36B3F5764D41}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{94DCF6AE-9D56-4771-879C-AC020A783926}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7A43A10-31A0-4356-AB35-DAA59FDB63CE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FAB5E97-7967-44B5-8274-116D73D43C49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAFBBCD9-381F-44EA-9C56-E0033B82A9C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{433B8F43-8F85-4635-8B16-EC35973E50C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2D1C960-939B-487F-9124-C3B57D5C6FB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C93E11E1-E97C-4FE0-933A-BEA513251D79}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EF43E21-8352-44CF-B630-5E9B3A43C474}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BB7CB13-F0BB-4155-A426-725AFF85AA3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2664,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC65B2E-38F6-40DB-A17B-9DD3F04E8CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131F18A3-94D6-4C98-983A-90C91EEA027F}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3956,18 +3956,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDA39B14-3EF2-4BCF-8EF2-7732367C6878}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08038207-8038-49C5-A305-0DD6739185DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAED34FA-9A24-4AF4-9EC0-285E4EEE9FC3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D3B6796-4326-460C-AC77-E4FA73A7D160}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC96E9A9-E6D6-48F7-A4EA-B244E095388C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B21CAC3-E837-4E8C-BB18-80226F2DC0BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B185E6B-D99C-47DB-BD61-5063804C8A83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DCC1687-60A3-4447-A039-C7455C27C952}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AF0F665-EA2F-4F51-8EB9-B8ACD6695212}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A3C734E-E676-4F1E-9404-57DCD93303E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC3C46BC-1BC6-4658-B125-978A16C8112F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88D28E61-A767-4C7F-98F4-57EBE6B520E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70DAA345-955B-4AD5-9464-666DE437D4FD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{565F171D-8CDE-462C-8933-D60277EEF038}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA4538D2-83C8-4355-933E-060FA725DE98}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1923FAA9-49AF-49BD-A721-9EC5D1E2BC76}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51B4CBC6-FD32-4619-9274-6FE1A459DF1D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EC2AED8-8297-458B-AB1D-D64294E0A71F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF9DC854-B65A-4EE1-8F3E-9340CF2A6B52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{475C42F1-5785-4874-900E-5C121BB3C4AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5EB2299-590A-4246-8BB6-0D831897D9D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DE9EB429-88E2-489D-9A7E-8314DC45D783}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37667464-F102-46B8-82E1-4365EBC43BBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A3433AC-7832-4C75-A1E8-F7B6AD898DDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3980,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A3CB7-5C71-4AEB-997B-E0DD7B4B3ED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF1AAB8-32A9-43FA-837D-91093BDC6C9D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5268,18 +5268,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1A1502C-C60F-4C26-B948-FAE367B8F441}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C06B7B94-E13C-42F2-BEA9-ABA6CF3EBAC3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91B2A1FE-D1CE-4634-A26D-F4D9B84297B9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF964113-2B88-4846-AB74-D110D6E9010E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D19139BC-AB0E-4EC8-A59E-2EE3D3100447}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A58DE797-4E11-4768-89A4-BC866BAA8B01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C838108-5567-4A4B-8B05-38203721B18B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A25DDC5-50FF-447F-95EB-CF202F7CB6DA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{818A5625-5022-4FD5-B632-89C8A8C0C956}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E17A910D-972C-4588-85CC-511AD25CB69A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B9C8DDE-558D-40A1-B176-6B97FDA9F80E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C99E14AB-A5A0-4A11-B703-DCF4250171BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EE55F80-C5D6-42EF-A4EB-E0E312D3714A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE9A5A6F-E17F-40AE-9935-43E268009F2F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0B27E7C-A4F4-4CC6-9CD8-52DD6759CFD2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{09A849CA-43DF-4175-BD5C-90553F9809B0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7383EDEF-6AFE-4815-B6AD-4B139FE3CA7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E2942DD-0B84-4CDB-A2FE-3DE3CE58C5A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6FF636AD-3B9B-4B37-8CEA-B2102421E530}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65A8C315-A753-4FE6-B2D1-41E11F30099C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3209A6A-E709-4338-A686-C8103E6E217E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58FA3F96-60EF-4300-9E8E-F55646BA8909}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E744E1A8-39A6-49F8-8A84-1D364BA0F099}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67E11CD2-4C2C-456B-BA21-C8E33C34D8D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5292,7 +5292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF578A5-626F-41F5-918A-94129FEFE7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6427417-AD30-40CB-BF7A-C853B76C15B3}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6572,18 +6572,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{276D6430-6E7D-4B75-9D4B-3DD0DD0CE02E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE826336-4442-4901-A20D-E5711D63D4A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EFBA6146-4167-474D-A24D-92C258286765}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5DFB689-1A2E-4729-885E-E51DA61A54B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03C8EDC1-554E-40AF-A7BF-1367E72FCDE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E6BD92E-DB7F-46E4-A229-774B91E987AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAECC399-B905-45F2-9F8C-7157E267750A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0FD80A7-8E41-44AA-9813-FD955A613ADC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4AAB366-1EE7-4FEB-98D8-896E36517672}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE3CB6C2-F6A4-4A7E-A83E-9533C83C3950}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C95CB095-6FEA-48AE-9FDE-D6586BE1AFDB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CCEFF12-8742-4BDC-9D55-81A9A894F070}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{237C81BF-9988-4A5E-B4A3-AACF1D420CE5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD48CC89-57A7-4A89-A0D7-94BADA085F3F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3AD2284B-76A9-4609-999A-87E617DC82AC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07C77711-6B5C-4C5F-B283-3609F92AFB5E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EBC378B-7486-4F0F-9FEA-909B75D274CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{514E4D42-F7F8-44FB-990C-3185086321A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40414CE5-2752-4C9D-9E30-3E2BAE3A734F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF0C9ABD-5473-4DBA-B7DE-FE15F4DF8E47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF58B5D7-36BA-47C3-8633-C8F17D315A68}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D33DABFA-EEE9-4E1A-81FC-2CA7E6298628}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3700EED0-A371-443C-A012-55309A38945A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C9C02C9-9181-4090-B3DC-E354481D93AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6596,7 +6596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3346B25A-FB43-40EE-B2D6-6F97965A9CFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F272C3-5458-438C-A43D-6455192A9D51}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7919,18 +7919,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C14B0731-1E6F-4DC8-8E72-1EEFDD35CE9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F0FD2DE-6478-426C-A244-33A6E9D1C475}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80ED4890-86A7-4837-AB5F-471EB7B139FB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{758B02D6-754C-4DB5-A2CA-B9A777C11D45}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D23A2DA-FC11-4E0E-B651-FB43439ABD29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7B6D00A-6856-459B-9556-86D6B0A7BEEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDA1EF23-BAEE-4E53-8A9C-7031F51E3E7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4F0CAED-E1EC-4405-ADA4-96C8FBA7D121}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F95F9A46-3646-41EB-BBF3-7A02DA27BE79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{09EA180A-CBA5-4B99-A893-37284275216B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{991F994F-E579-45B7-818A-937BD60221DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6730CF3-9C62-4DC2-A3DF-485EF289B1F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E64ADB3-3295-491C-874E-B7BC66015293}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C0204AB-3E47-4AE1-903F-04FFD309A83A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB914719-8D7A-4E25-9421-0E7DF19BDC95}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6DC74A0-376B-49D4-8489-B68A8C0D96D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C57078C-4C66-4F25-8048-CA8BB9449A32}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E36FDB00-F41A-488F-B4C3-781C4D4A90CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09ED83F6-B040-4947-97B5-5F57C643AD78}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1508C167-5971-45AA-9203-0F70B70B88A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8ED6366F-9FFA-4D13-9F6D-F87A6E64421B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CB77878-41EE-4D83-8720-E049662442B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79BB6313-7791-47D5-B055-AB817539EC5D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF2F1F77-B6D3-4FA8-8593-EF8258123F3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7943,7 +7943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91119E6E-76C2-4F19-9CB2-4E5301DB01F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F713ACB3-1889-4BC4-8CCC-0D494E3C8653}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9266,18 +9266,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D6226FE-FAD6-463C-A07C-44ECAF01F85C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34719DD9-9DF7-4DA2-9A08-B3126F1E326A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D581564-5BD1-430E-8336-1A377ECEA15E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64D7865B-ADFA-4407-B711-1A5BE479FC42}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C7921F9-A8AE-4736-AB1D-0B757D1B444B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49265082-6842-4670-BDF2-55152EE01C79}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{505B9C77-C478-48A1-9108-78FB6DAFDDCD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B93A5A3-8EBF-4C40-8958-9F1B563A8AFD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{311CE612-3DEC-4C1A-85E5-0D4FDC6D3F39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{469613BA-D1A2-4269-9415-B4B18A911CDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB1932CB-B3C7-47EC-8C41-4CB04A5AD841}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5181D80-8F8C-46AA-B8EA-4D2C26BAEC56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A57A4F87-3719-4ABB-B41A-A12EBB96D215}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47DADE1A-6A08-4471-8843-827854668195}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C292649-6352-4E6F-9F4B-998FE9B15DAE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3F7B6B3-A9A4-4E68-AB20-A97D70DA253D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB806FC5-C7D1-4B3D-98BD-5F17DA906F01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0343AB64-9DE0-4310-A44F-4F80D560B8A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B03DE309-095E-463E-BB1E-5A143D063A2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1696B655-5468-4F8C-88D7-41FA5E21BF90}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{195FAA95-5B8B-4630-A10C-B03445335952}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F9CFA539-94B2-4FA7-8AFB-25F19972122E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C63DD052-C1D7-42BF-AD1E-63B6A022C925}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45E3A37E-DF53-401B-BB04-A93466588F78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9290,7 +9290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8828DCB2-5C96-4985-9CAA-92CA24599932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034F0424-2EBF-4C0D-B978-D6424995E196}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10609,18 +10609,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F53CEC16-3052-4503-A2C4-A78CE9537566}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF3C2002-7313-481D-AC57-EFB1E4859C12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1A359525-B5DA-43D9-A25D-4192B5D991EA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3B5D5C84-9646-41BA-B69D-D67FC0F58F8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72D18F54-45BD-44C5-8DC8-C92ACF751E48}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A3F47E84-E125-4621-B8C9-300075A13EBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{230530A8-8CAF-45A1-8228-669861672B4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CFF7042-B6EC-4BA9-BFDE-3C20C239F9C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0441DF46-6F8E-464D-B89E-D05D526F5287}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F20AE089-DD15-48F4-B7E6-61F4BADE1A92}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2E25D66-9E1C-4B0F-A648-CCB160787BBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38C86DB2-168E-4D5E-86A0-562EDAD06C5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3CB1037-C866-48A8-BE54-8DB6DBA963F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A0A963D-0182-4B36-9673-C57D672AD909}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1C0DA9A-0E63-463F-A5B8-EA5340C8D540}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2A8C0148-26D9-48FF-8528-E3DF943132A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD04B87B-A061-4765-97A7-B1D32E39F89B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D199C271-5EDF-4B9A-B92C-3AC32DF76564}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCAD725A-8DC8-40E3-953E-91CF7BED5026}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EADF8300-DD0D-43A6-9A34-5149F46DEEA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D74D730-0A25-4A19-A482-B530B372D14C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D249007-A8C2-4C5F-B5CC-D5F6DF23A872}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FACAC034-1D3D-402B-8941-6995B083E884}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A917D9EC-BC07-4557-B960-A05F14BCD935}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10633,7 +10633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48580ED-A2C9-48D0-92E1-0A3A821705ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12C9E8-2A39-472F-8740-CBB625F91D65}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11952,18 +11952,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCB8F37C-8F4D-4886-8C1D-950C1E18E61C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85C5E055-EE28-41E3-A336-E548D3DC2E0D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5956EDAD-A0FB-4E76-8A64-7B014530A956}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7412CB1-8D4E-42E4-B785-CBF84EE8760A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F707657-C7E2-4297-9DBC-3F7DD19B48D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7AFAEE3-D0A8-480C-BD36-37F22F34B9C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA495B73-04CA-44A1-8F3B-FF529FD2C1CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DF11CD6-99DA-4F76-A39D-8960A48EC841}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51DB7370-AD4B-4495-A9CA-FB3674229363}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0089A19D-DD18-4103-8004-5A85E62C12EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{181802F6-894D-461B-B6D7-7F90FDFFF5A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC5CAC6E-04E0-470C-AA5C-06D2920A2F7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05365910-0A0C-438C-8FFD-7F2347BCA37E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D10D71A5-9B78-4743-887C-7FAC315D4ACA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F86D5D6-3172-4D81-84E4-8DE2A2E691F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5EDEBFA0-A421-43E4-8606-372503B53195}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AD7D508-063C-48C2-B704-28EB03A8DFD4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{712E39DB-78CC-4765-8F20-2F735B9F7B5B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{829591E2-AF1D-4645-8AEE-D921BBF3BFD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA0038BC-88A1-4D2D-9F7D-3EBC9F507CCA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F08063B1-3F09-458E-B99D-5E6E37369CFC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1561E90F-B1AE-4BD7-9844-6C370754589F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03E239C0-7BAD-4FE4-A378-6A1015F9D62C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40C60F7C-6297-49E5-B743-61A6D5CC46D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11976,7 +11976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E4D70-6E22-4BA3-AF24-7B7830C60728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2980EC0-A024-44BC-AAD3-4F5F6536A2C1}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13283,18 +13283,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7565948-A2CB-4DBE-A006-73F660CB72AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F794C84C-AF26-4B3E-AB9A-18E0E2C3E6CB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2C18C0C-7929-4DD3-B6E0-81811817523C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98E6FB17-86FB-4526-963D-66317B6ACCBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06FB78EE-B1BC-4F57-A903-0D690FD0A060}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA2495F6-5DE3-45DA-B2B5-0A5B5BA01519}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3D7B249-BBCE-4AB3-8BD7-4BD7240B1C66}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8223F87-D56F-42AB-9ADD-9FCAFE31A01B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9329E740-F925-4792-B869-94D9D744B89C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81C0BDFF-9CBA-41DA-AD44-4571ED3448C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{014431D8-AA9C-4262-AE9F-DD13E012A128}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4ED1B09-C81B-48BC-B0E1-E1130E7380F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D03ED07-1705-4103-BF16-6C7084FCDC06}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FF24E0C-C88B-42FC-89D6-341A9AC975AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C3F5890-7C67-4231-B46E-BF32794850B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E70C19AE-51B0-47A7-99CA-C92AFC0FC6C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5EA850C-B84E-448E-AC97-96A3E4E444A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC66C195-4423-453B-935C-81A27339A5D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FFCDFEC-E1F7-4DCF-8DF8-72836B38A843}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1411E2F-7A04-48EE-9EDE-4751F83C5D8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7C1B470-6D58-4B87-993C-78046E717B16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD8B8C32-0C2F-4E42-A1D3-545B0809BCB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F80264D-DA42-442E-90CC-6CAD6B8DAE0B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDA5E12E-BF4C-425E-BC0C-AB3E6FBBD46E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13307,7 +13307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8213823B-7A49-4355-BECB-BCE08DE756B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A164CA0-9B58-49B0-B818-1EDF18E03DA0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14615,18 +14615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91C8B3F4-5160-499F-A742-965C2B5250D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A606BD3F-4073-4D7C-89BC-39CEB4C7F364}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E96C99F-63FB-466C-B876-2DB60D84002D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9C667FF-A8DE-4230-9A50-7DCCF843212C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{358FA748-A122-4895-93D0-904E6681BB4A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E8EF0C93-3638-40E2-8C7F-CBEB953E40A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{319381BF-C5F2-4E5D-9D1D-BE0CF8B9B29D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1469704-F335-4135-93E5-88B5F4B67D8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFF00E66-1CF2-4E4D-BFC6-D3C3CDB554A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96097B41-30A5-4CFC-805F-77C167D7505C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99D8AABE-CFE2-4974-84BA-0896C83A362F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DCE18FF-31C8-411D-A744-9B4D83F2522A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF1BF23D-33BC-4D74-A6D2-749AD8A0C9E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36230E71-67ED-4F1A-B774-2F78501B59D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CD253E7-EF7A-4FA5-B718-4159224173A1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DD1D8157-771A-447A-8AA8-D34AB1A0F426}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C2E7290-F73C-453C-93F8-3E29CFED48D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDAE41E5-C6E9-422C-82EF-A4D2E66BFCAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F4CD167-0432-4084-98D4-126D11B7DB61}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E470284A-B985-4C0D-AA22-BD2DADBB23EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{562F6D48-E4B2-4593-B175-D811C21A0AF9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC34B41C-4860-4384-B6A9-46CE030861AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E16CE543-6732-48BA-BD77-D01267DC719E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCFE58FE-6082-4601-883C-3E0E02E8E058}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14639,7 +14639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292A66A7-80CB-4141-86FA-9C4C3C20E0BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744760EC-273B-4B78-842C-C77D9939057D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15935,18 +15935,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E76542E-C22A-446C-866E-07C6771F4B4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77B58889-3B34-4C7A-8387-EF3DE457C58C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1C677966-BDE4-4D50-B4B8-99BA0782CA97}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A3761A12-3861-49F4-94E4-A19903D1E6D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EBC07F2-4585-41D6-9B26-763B7B278D58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0FABCBF5-0E34-48AD-BA2F-30DB30DD2DA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8727749-07D0-40BC-8910-015BE163FB69}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F499CB58-EB79-4555-A6DB-03C6D060A771}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A68E90C4-B873-4A2F-9B9F-43977DAD22C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F260CFB-8727-42BD-9B5B-CE4A46A430A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CF10C18-E078-48A4-89AA-B04D52F5B490}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{579FC6AC-FC1C-4C4C-ADB8-C83AA697EBFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAAF5820-1BE9-48EB-9C7C-0B9A7B835AE1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81A18C12-1B71-45A5-A224-CE7A4E068E98}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94CC1F99-FFF8-4EC1-85DE-201521042225}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C1F5453-CB97-4660-9AF7-7A13B47AD695}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FD856A9-EABC-49F0-81C9-DD9FAE85B9BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F5CAF03-0D67-467E-BCF9-08DE293AA130}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6417E058-3429-4402-B5BF-79118F7B37BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{679EDDAB-3C93-4A30-8C47-91B8D3EFFD7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A4E54BE-DB82-454A-99DA-D088AB13530D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F05EF93-549A-40AE-BC3B-C48AD22670FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF9216DD-9273-43EB-A791-B20D1E28DBA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26469BCB-A6E5-45FC-AB80-1E1A915C7412}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15959,7 +15959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F334F71B-7E9C-48DD-BA37-6CFEE4CA12A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31CE128-A7B3-4437-9B84-6823C5CFFA8A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -17255,18 +17255,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76B0A2BA-457E-4579-BFB3-19E890C2A23E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04898F2E-BB82-4D22-A737-E88A979CC9AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E759318-D825-4EB9-B5DE-16C9733D6565}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3D45E7B-7CC3-4AC2-902C-B1D8790B899E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF57EABB-61D3-4134-9A02-BBB901632463}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA60FA79-BA7E-4EDB-9859-11B6C0A1C0B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{050F8869-A140-4DB2-B7BB-B2ED91A58CEE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E481B81-25E6-443A-8C2B-FB41FFDD15E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E44A8FA0-7F33-4F3A-A761-30DFAEC724D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDDC4583-FB6D-4621-BA22-6CAA58BF5673}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40CF6C2D-506A-4861-A0E5-47B224F3ED51}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21E38BE7-E2D7-44F8-A50A-16CD7C5D5822}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87AEE501-73A8-4E73-A753-3380968F7615}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{169C25CC-4E66-42A3-B1F5-8D4FEF383C9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F495B50-A807-4566-97C6-2F33953FBB5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0074AFF3-2D73-40DB-AE50-91A0B9FE3CDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1C163E3-595D-4616-8D46-6485045FCFB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{493C6B72-8BD0-4576-B65A-528F79177604}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8242E16C-8D5E-4338-837B-5BBD9D157107}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A8B1643-AF53-41E2-9E1D-2F29691EB13E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1210E357-FCBB-4248-BA6D-1EE40D3484C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CF0E4912-15C1-4E23-999D-89AE5DEA8963}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B80560B-9859-4893-A692-922349CD35B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8EFCAD5-AA6E-4CA0-94A0-9BE13DEAF0FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
